--- a/bots/crawl_ch/output/electronics_2022-07-16.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-16.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1015,48 +1015,50 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6762336</t>
+          <t>4905479</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1066,7 +1068,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1076,60 +1078,58 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4905479</t>
+          <t>6762336</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -1883,29 +1883,29 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1944,39 +1944,39 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -2871,36 +2871,34 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2909,12 +2907,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2924,7 +2922,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2939,39 +2937,45 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2979,94 +2983,90 @@
           <t>14.95</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.87/1ST</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>24ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0.87/1ST</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3137,36 +3137,34 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3175,12 +3173,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.95/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3190,7 +3188,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3200,70 +3198,90 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3.95/1ST</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3316,39 +3334,41 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6848736</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3357,88 +3377,68 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>6848736</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>24ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0.87/1ST</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4388,36 +4388,34 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4426,12 +4424,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4441,7 +4439,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4451,58 +4449,60 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>3.74/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4522,39 +4522,39 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4563,17 +4563,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4593,17 +4593,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:15</t>
+          <t>2022-07-16 20:56:41</t>
         </is>
       </c>
     </row>
